--- a/data/trans_dic/P9_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P9_2_R-Edad-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que dejo de hacer algunas tareas por problemas físicos</t>
+          <t>Población que dejó de hacer algunas tareas por problemas físicos</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,91</t>
+          <t>1,16; 3,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,54</t>
+          <t>1,49; 4,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,85</t>
+          <t>0,72; 3,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,42 +744,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 6,08</t>
+          <t>2,68; 6,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 6,69</t>
+          <t>2,57; 6,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,17</t>
+          <t>1,55; 5,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 9,13</t>
+          <t>1,65; 9,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,55</t>
+          <t>2,28; 4,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 4,99</t>
+          <t>2,48; 4,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,63</t>
+          <t>1,42; 3,73</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,33</t>
+          <t>0,78; 4,12</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,93</t>
+          <t>1,51; 3,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,85</t>
+          <t>2,08; 5,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,4</t>
+          <t>2,3; 5,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,55; 10,72</t>
+          <t>4,65; 10,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,2; 9,25</t>
+          <t>5,17; 9,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,93</t>
+          <t>3,41; 7,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 7,42</t>
+          <t>3,57; 7,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,53</t>
+          <t>3,3; 7,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,47; 5,83</t>
+          <t>3,6; 5,92</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 5,35</t>
+          <t>2,93; 5,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,71</t>
+          <t>3,25; 5,77</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,38; 8,12</t>
+          <t>4,58; 8,27</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 6,75</t>
+          <t>3,25; 6,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 8,5</t>
+          <t>4,48; 8,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 5,87</t>
+          <t>2,84; 6,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 9,71</t>
+          <t>4,85; 9,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,48; 10,58</t>
+          <t>6,35; 10,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,63; 13,87</t>
+          <t>9,02; 14,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,65; 9,97</t>
+          <t>5,66; 9,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,31; 12,7</t>
+          <t>8,24; 12,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,0</t>
+          <t>5,37; 8,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,21; 10,34</t>
+          <t>7,17; 10,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,73; 7,43</t>
+          <t>4,72; 7,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,13; 10,5</t>
+          <t>7,01; 10,26</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 9,28</t>
+          <t>4,97; 9,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,97; 10,37</t>
+          <t>6,06; 10,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 11,7</t>
+          <t>7,08; 11,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,76; 15,01</t>
+          <t>8,99; 15,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,1; 15,78</t>
+          <t>10,05; 15,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,64; 18,84</t>
+          <t>12,57; 18,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,16; 15,62</t>
+          <t>10,07; 15,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,65; 18,08</t>
+          <t>12,83; 18,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,0; 11,75</t>
+          <t>8,07; 11,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,88; 13,56</t>
+          <t>9,9; 13,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,12; 12,76</t>
+          <t>9,15; 12,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,52; 15,72</t>
+          <t>11,55; 15,54</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,49; 17,06</t>
+          <t>10,87; 17,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,59; 19,54</t>
+          <t>12,32; 19,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,88; 15,36</t>
+          <t>9,13; 15,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,13; 22,32</t>
+          <t>16,4; 22,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,24; 19,24</t>
+          <t>12,25; 20,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,38; 31,87</t>
+          <t>23,46; 31,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,53; 27,36</t>
+          <t>19,83; 27,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,9; 25,14</t>
+          <t>19,7; 25,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,49; 17,43</t>
+          <t>12,3; 17,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,89; 25,02</t>
+          <t>18,96; 24,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,38; 20,58</t>
+          <t>15,41; 20,6</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,49; 23,04</t>
+          <t>18,71; 22,99</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,49; 27,77</t>
+          <t>20,11; 27,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>29,02; 37,21</t>
+          <t>29,19; 37,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,33; 27,42</t>
+          <t>20,82; 27,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,82; 26,22</t>
+          <t>20,87; 26,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>32,68; 39,81</t>
+          <t>32,37; 39,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,47; 52,52</t>
+          <t>44,85; 52,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>39,2; 47,15</t>
+          <t>39,46; 47,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>26,96; 43,03</t>
+          <t>26,81; 43,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>28,2; 33,45</t>
+          <t>28,09; 33,5</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>39,15; 44,61</t>
+          <t>39,12; 44,84</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>32,36; 37,7</t>
+          <t>32,41; 37,89</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>24,56; 34,73</t>
+          <t>25,41; 34,81</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,31; 9,16</t>
+          <t>7,22; 9,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,89; 12,18</t>
+          <t>9,93; 12,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,32; 10,32</t>
+          <t>8,33; 10,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,71; 14,14</t>
+          <t>11,63; 14,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,43; 15,85</t>
+          <t>13,41; 15,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,55; 21,26</t>
+          <t>18,48; 21,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,32; 19,18</t>
+          <t>16,41; 19,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,36; 20,57</t>
+          <t>17,37; 20,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,71; 12,25</t>
+          <t>10,74; 12,29</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,69; 16,43</t>
+          <t>14,71; 16,5</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,64; 14,46</t>
+          <t>12,79; 14,44</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>15,14; 17,15</t>
+          <t>15,16; 17,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P9_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P9_2_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,97</t>
+          <t>1,16; 3,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,48</t>
+          <t>1,65; 4,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,57</t>
+          <t>0,75; 3,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 6,53</t>
+          <t>2,54; 6,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,76</t>
+          <t>2,76; 6,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,01</t>
+          <t>1,62; 5,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,71</t>
+          <t>2,25; 4,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,98</t>
+          <t>2,47; 4,95</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,73</t>
+          <t>1,48; 3,65</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,93</t>
+          <t>1,48; 3,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,09</t>
+          <t>1,99; 4,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,35</t>
+          <t>2,15; 5,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,32</t>
+          <t>5,02; 9,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,07</t>
+          <t>3,32; 7,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 7,62</t>
+          <t>3,49; 7,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,6; 5,92</t>
+          <t>3,51; 5,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,93; 5,33</t>
+          <t>2,98; 5,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 5,77</t>
+          <t>3,32; 5,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,88</t>
+          <t>3,07; 6,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 8,17</t>
+          <t>4,36; 7,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,04</t>
+          <t>2,91; 5,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 10,87</t>
+          <t>6,3; 10,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,02; 14,08</t>
+          <t>8,75; 14,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,88</t>
+          <t>5,7; 10,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,37; 8,25</t>
+          <t>5,21; 8,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,17; 10,42</t>
+          <t>7,37; 10,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 7,36</t>
+          <t>4,66; 7,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,97; 9,41</t>
+          <t>4,81; 9,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,06; 10,43</t>
+          <t>5,94; 10,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,08; 11,99</t>
+          <t>6,92; 11,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,05; 15,75</t>
+          <t>10,24; 16,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,57; 18,57</t>
+          <t>12,32; 18,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,07; 15,24</t>
+          <t>10,16; 15,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,07; 11,55</t>
+          <t>8,04; 11,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,9; 13,64</t>
+          <t>10,09; 13,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,15; 12,58</t>
+          <t>9,03; 12,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,87; 17,98</t>
+          <t>10,53; 17,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,32; 19,6</t>
+          <t>12,58; 19,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,13; 15,45</t>
+          <t>9,34; 15,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,25; 20,0</t>
+          <t>12,36; 19,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,46; 31,95</t>
+          <t>23,24; 31,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,83; 27,49</t>
+          <t>19,78; 27,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,3; 17,13</t>
+          <t>12,35; 17,45</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,96; 24,72</t>
+          <t>19,0; 24,81</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,41; 20,6</t>
+          <t>15,5; 20,65</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,11; 27,65</t>
+          <t>20,27; 27,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>29,19; 37,45</t>
+          <t>28,36; 37,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,82; 27,51</t>
+          <t>20,74; 27,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>32,37; 39,55</t>
+          <t>32,45; 40,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>44,85; 52,61</t>
+          <t>45,41; 52,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>39,46; 47,42</t>
+          <t>39,52; 47,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>28,09; 33,5</t>
+          <t>27,96; 33,19</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>39,12; 44,84</t>
+          <t>39,15; 44,71</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>32,41; 37,89</t>
+          <t>32,39; 37,69</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,22; 9,11</t>
+          <t>7,3; 9,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,93; 12,06</t>
+          <t>9,91; 12,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,33; 10,3</t>
+          <t>8,25; 10,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,41; 15,93</t>
+          <t>13,53; 15,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,48; 21,38</t>
+          <t>18,71; 21,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,41; 19,02</t>
+          <t>16,32; 19,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,74; 12,29</t>
+          <t>10,72; 12,27</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,71; 16,5</t>
+          <t>14,7; 16,53</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,79; 14,44</t>
+          <t>12,8; 14,53</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
